--- a/docs/covid/StructureDefinition-c19-reporting-priority.xlsx
+++ b/docs/covid/StructureDefinition-c19-reporting-priority.xlsx
@@ -242,7 +242,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0485</t>
+    <t>http://fhir.logicahealth.org/covid19/ValueSet/covid19-reporting-priority-vs</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="41.671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.41796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
